--- a/DOC/結合テスト/emsm基本給_マスタ機能結合テスト_エビデンス.xlsx
+++ b/DOC/結合テスト/emsm基本給_マスタ機能結合テスト_エビデンス.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ems\DOC\結合テスト\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E1990-5AF3-42E1-8F40-E398D86EB93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9215" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="No１－No4初期表示" sheetId="1" r:id="rId1"/>
@@ -21,12 +15,7 @@
     <sheet name="NO16 更新" sheetId="6" r:id="rId6"/>
     <sheet name="NO17新規追加" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -34,139 +23,282 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>No１基本給マスタ機能画面の初期表示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DBにEmployeeのデータ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No2基本給マスタ機能更新画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NO3基本給マスタ機能新規画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NO4検索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NO5全エラーメッセージ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO6:更新画面にて、基本給が空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Klee One SemiBold"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NO6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>更新画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、基本給</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のままに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、「登録」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ボタンをクリック</t>
+    </r>
   </si>
   <si>
-    <t>基本給を入力してください。”を表示します。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>基本給</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>入力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>してください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Klee One SemiBold"/>
+        <charset val="128"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>NO7：更新画面の基本給項目の入力値は数値ではない場合、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>”基本給に数値のみを入力してください。”を表示します。</t>
   </si>
   <si>
     <t>NO8：更新画面にて、残業不足時間が空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”残業不足時間を入力してください。”を表示します。</t>
+  </si>
+  <si>
+    <t>NO９：更新画面の残業不足時間の入力値は数値ではない場合、「登録」ボタンをクリック</t>
   </si>
   <si>
     <t>”残業不足時間に数値のみを入力してください。”を表示します</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO９：更新画面の残業不足時間の入力値は数値ではない場合、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>”残業不足時間を入力してください。”を表示します。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NO10:更新画面にて、残業時間が空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>”残業時間を入力してください。”を表示します。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NO１１：更新画面の残業時間の入力値は数値ではない場合、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>”残業時間に数字のみを入力してください。”を表示します</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NO12:更新画面にて、稼働期間Fromが空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>”稼働期間Fromを入力してください。”を表示します。</t>
   </si>
   <si>
     <t>13:更新画面の稼働期間Fromの入力値は数値ではない場合、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>”稼働期間Fromに数値のみを入力してください。”を表示します</t>
   </si>
   <si>
     <t>NO14:更新画面にて、稼働期間Toが空のままに、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>”稼働期間Toを入力してください。”を表示します。</t>
   </si>
   <si>
     <t>NO15:更新画面の稼働期間Toの入力値は数値ではない場合、「登録」ボタンをクリック</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>”稼働期間Toに数値のみを入力してください。”を表示します</t>
   </si>
   <si>
     <t>NO16：更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>①更新前のデータ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>②更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NO17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新規追加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Yu Gothic"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -176,16 +308,358 @@
       <name val="Klee One SemiBold"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -193,39 +667,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -241,27 +1001,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E5AE76-43D6-60F2-7BBA-CF3B24F8FEDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="692150" y="789842"/>
-          <a:ext cx="10239686" cy="1419957"/>
+          <a:off x="692150" y="598805"/>
+          <a:ext cx="10239375" cy="1102360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -283,21 +1037,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA319B8-C055-DDDD-57C6-A1355819DFB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="736600" y="1244600"/>
-          <a:ext cx="825500" cy="762000"/>
+          <a:off x="736600" y="952500"/>
+          <a:ext cx="825500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -342,40 +1090,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>652780</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>140595</xdr:rowOff>
+      <xdr:rowOff>170815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>50600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:colOff>30280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB30A412-6082-5EDB-75B5-AE28A2D78298}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="673100" y="2934595"/>
-          <a:ext cx="10744000" cy="2139055"/>
+          <a:off x="652780" y="2266315"/>
+          <a:ext cx="10743565" cy="1630680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -397,21 +1139,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矩形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6974655-4D3A-48BC-A05D-8537E66D7FB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10439400" y="2921000"/>
-          <a:ext cx="933450" cy="876300"/>
+          <a:off x="10439400" y="2222500"/>
+          <a:ext cx="933450" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -457,31 +1193,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662CEC9B-AD48-4971-9648-46F06155CB0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1016000" y="4851400"/>
-          <a:ext cx="1339850" cy="203200"/>
+          <a:off x="977900" y="3583940"/>
+          <a:ext cx="1339850" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -539,27 +1269,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762FE169-2E72-D63E-B801-B90419B315D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="673100" y="7391400"/>
-          <a:ext cx="11730058" cy="1800747"/>
+          <a:off x="673100" y="5549900"/>
+          <a:ext cx="11729720" cy="1355725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -583,27 +1307,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A3B444-0116-4AC2-95DC-8B3E476D55F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="711200" y="5975350"/>
-          <a:ext cx="10239686" cy="1419957"/>
+          <a:off x="711200" y="4514850"/>
+          <a:ext cx="10239375" cy="1038860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -625,21 +1343,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AA9595-4633-4640-AD67-98F866F37B9A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="698500" y="8331200"/>
-          <a:ext cx="11652250" cy="330200"/>
+          <a:off x="698500" y="6286500"/>
+          <a:ext cx="11652250" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -697,27 +1409,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0084E983-3A81-F4C1-6038-B2D28DA21291}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="558800" y="9467850"/>
-          <a:ext cx="4591051" cy="4011265"/>
+          <a:off x="558800" y="7118350"/>
+          <a:ext cx="4591050" cy="2994660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -739,21 +1445,15 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="矩形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFA5F22-B806-46D4-A3D3-82A2E71C3BB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="矩形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2794000" y="10045700"/>
-          <a:ext cx="2400300" cy="3441700"/>
+          <a:off x="2794000" y="7569200"/>
+          <a:ext cx="2400300" cy="2552700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -806,32 +1506,26 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>571300</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>253105</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>62605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BE00BE-EAEC-4C54-B97C-71BBB2817ABD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="17164050"/>
-          <a:ext cx="10744000" cy="2139055"/>
+          <a:off x="533400" y="12909550"/>
+          <a:ext cx="10743565" cy="1630680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,27 +1549,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B94D7D8-061A-4A30-AA0A-67AB50298130}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="15123710"/>
-          <a:ext cx="10933089" cy="1411690"/>
+          <a:off x="514350" y="11376660"/>
+          <a:ext cx="10932795" cy="1031240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -897,21 +1585,15 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="矩形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9794B50-8D83-49C6-9D40-88C5BF0A7F58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="16116300"/>
-          <a:ext cx="774700" cy="400050"/>
+          <a:off x="457200" y="12115800"/>
+          <a:ext cx="774700" cy="273050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -967,21 +1649,15 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="矩形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8655C5-5C06-4701-AC95-5EFE3615B557}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10299700" y="17202150"/>
-          <a:ext cx="933450" cy="876300"/>
+          <a:off x="10299700" y="12947650"/>
+          <a:ext cx="933450" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1037,21 +1713,15 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="矩形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBBEE0C-A089-48F6-B5F1-E84892D53162}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="矩形 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="901700" y="19081750"/>
-          <a:ext cx="1352550" cy="254000"/>
+          <a:off x="901700" y="14319250"/>
+          <a:ext cx="1352550" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,27 +1779,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F6B6AD-6B01-3826-8CFC-14F24DD243B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="560276" y="19621500"/>
-          <a:ext cx="4981172" cy="4382444"/>
+          <a:off x="560070" y="14732000"/>
+          <a:ext cx="4980940" cy="3302635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,21 +1815,15 @@
       <xdr:row>81</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="矩形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A800020A-FA12-48FC-AC77-850ED81FB2DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2870200" y="20231100"/>
-          <a:ext cx="2647950" cy="482600"/>
+          <a:off x="2870200" y="15214600"/>
+          <a:ext cx="2647950" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,27 +1881,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图片 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A21613-2B60-3877-66FF-3F27E41AAD08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="641350" y="25260300"/>
-          <a:ext cx="11039413" cy="1466172"/>
+          <a:off x="641350" y="18973800"/>
+          <a:ext cx="11038840" cy="1084580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1265,21 +1917,15 @@
       <xdr:row>102</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="矩形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE6BD1D-EFB1-4622-81B3-CEC9AC3436D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="29" name="矩形 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="698500" y="25571450"/>
-          <a:ext cx="1409700" cy="342900"/>
+          <a:off x="698500" y="19221450"/>
+          <a:ext cx="1409700" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1337,27 +1983,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0B23D4-AA08-A079-EEC7-24CEA26FEFE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635000" y="27059460"/>
-          <a:ext cx="11515951" cy="1782766"/>
+          <a:off x="635000" y="20328255"/>
+          <a:ext cx="11515725" cy="1337945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1379,21 +2019,15 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="矩形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E080E3-E792-43C5-BA55-B51EAEF6E0D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="31" name="矩形 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="28219400"/>
-          <a:ext cx="11480800" cy="342900"/>
+          <a:off x="647700" y="21170900"/>
+          <a:ext cx="11480800" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1451,27 +2085,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="图片 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C78589-0A99-F5A4-3786-32BE2A09CC3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="603249" y="29080532"/>
-          <a:ext cx="11444043" cy="2256718"/>
+          <a:off x="602615" y="21841460"/>
+          <a:ext cx="11444605" cy="1685290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1493,21 +2121,15 @@
       <xdr:row>123</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="矩形 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DDDE01-2F8C-40D9-9F62-3EC0DB8FDCBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="矩形 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914400" y="31153100"/>
-          <a:ext cx="1409700" cy="254000"/>
+          <a:off x="914400" y="23406100"/>
+          <a:ext cx="1409700" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1563,21 +2185,15 @@
       <xdr:row>116</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="矩形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFF55B8-8FC3-4EDB-A3B3-A173628EBCB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2508250" y="29241750"/>
-          <a:ext cx="9493250" cy="342900"/>
+          <a:off x="2508250" y="21939250"/>
+          <a:ext cx="9493250" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1624,7 +2240,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1640,27 +2256,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C914C3-CD52-5C2A-DD0C-C38E7061EC9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="558302"/>
-          <a:ext cx="11417179" cy="3906793"/>
+          <a:off x="628650" y="431165"/>
+          <a:ext cx="11416665" cy="2954020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1682,21 +2292,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA8B27B-E67A-4AAE-9870-EC5B18BDACE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="546100" y="1066800"/>
-          <a:ext cx="11423650" cy="393700"/>
+          <a:off x="546100" y="812800"/>
+          <a:ext cx="11423650" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1743,43 +2347,37 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>648256</xdr:colOff>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>96367</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>204202</xdr:rowOff>
+      <xdr:colOff>4371</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11733B7F-BFEB-EFA0-02A5-0339BADCB131}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="648256" y="698500"/>
-          <a:ext cx="5391711" cy="4839702"/>
+          <a:off x="556260" y="563880"/>
+          <a:ext cx="5391150" cy="3632835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1801,21 +2399,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4BC72F-3015-4C61-B966-4A4FDB6DCE0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3187700" y="2152650"/>
-          <a:ext cx="2298700" cy="298450"/>
+          <a:off x="3187700" y="1644650"/>
+          <a:ext cx="2298700" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1861,39 +2453,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>231530</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>151130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>550815</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>242337</xdr:rowOff>
+      <xdr:colOff>573285</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CB474D-1F54-7CFF-1C0D-BAF58D5BD463}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6835530" y="666750"/>
-          <a:ext cx="4942085" cy="4655587"/>
+          <a:off x="6858000" y="532130"/>
+          <a:ext cx="4941570" cy="3512185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1917,27 +2503,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5431991A-1738-B1C8-396D-65324A0A08B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="716016" y="6769100"/>
-          <a:ext cx="5050850" cy="4484047"/>
+          <a:off x="715645" y="5118100"/>
+          <a:ext cx="5050790" cy="3340735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1959,21 +2539,15 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CFD4BB3-19F9-41BE-89D4-BD1657D0C72B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="8178800"/>
-          <a:ext cx="2298700" cy="298450"/>
+          <a:off x="3200400" y="6146800"/>
+          <a:ext cx="2298700" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2031,27 +2605,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF346401-9210-2437-BA2F-F1061E30D408}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7827008" y="6807200"/>
-          <a:ext cx="5023289" cy="4992166"/>
+          <a:off x="7826375" y="5143500"/>
+          <a:ext cx="5023485" cy="3734435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2073,21 +2641,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矩形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF28D5F-6ED9-4D08-AA56-69C07089005F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7842250" y="7543800"/>
-          <a:ext cx="3359150" cy="298450"/>
+          <a:off x="7842250" y="5702300"/>
+          <a:ext cx="3359150" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2145,27 +2707,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83290D1E-8D20-9BAF-4A1B-B1EA381F887C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635000" y="13257632"/>
-          <a:ext cx="5340350" cy="4701107"/>
+          <a:off x="635000" y="9955530"/>
+          <a:ext cx="5340350" cy="3557905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2187,21 +2743,15 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矩形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBBD4B3-D467-4E13-B11F-5B7E0428E72A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3346450" y="15087600"/>
-          <a:ext cx="2298700" cy="298450"/>
+          <a:off x="3346450" y="11341100"/>
+          <a:ext cx="2298700" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2259,27 +2809,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9E8627-7AA6-2593-E504-07D493DC8549}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7524750" y="13331188"/>
-          <a:ext cx="5458893" cy="5275343"/>
+          <a:off x="7524750" y="10028555"/>
+          <a:ext cx="5458460" cy="3942080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2301,21 +2845,15 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E5AED8-A1D6-4067-A7C3-C8BCA9D81B6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7581900" y="14097000"/>
-          <a:ext cx="3225800" cy="298450"/>
+          <a:off x="7581900" y="10604500"/>
+          <a:ext cx="3225800" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2368,32 +2906,26 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>242266</xdr:rowOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>51766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9208A048-0446-BF6A-CC2D-B56275152792}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="19690948"/>
-          <a:ext cx="5492750" cy="4935318"/>
+          <a:off x="660400" y="14801215"/>
+          <a:ext cx="5492750" cy="3728720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2415,21 +2947,15 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CDA565E-9817-436C-A2A5-DCCA0881225E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3403600" y="21609050"/>
-          <a:ext cx="2298700" cy="298450"/>
+          <a:off x="3403600" y="16211550"/>
+          <a:ext cx="2298700" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2487,27 +3013,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A87528-5FF9-288A-E764-FAE71C1D1F36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7488195" y="19818350"/>
-          <a:ext cx="5616100" cy="5420758"/>
+          <a:off x="7487920" y="14865350"/>
+          <a:ext cx="5615940" cy="4086860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2529,21 +3049,15 @@
       <xdr:row>82</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="矩形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F8AB70-2DA3-4BC7-8A1B-54BFB717B5CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="矩形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7512050" y="20593050"/>
-          <a:ext cx="4419600" cy="298450"/>
+          <a:off x="7512050" y="15449550"/>
+          <a:ext cx="4419600" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2590,7 +3104,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2606,27 +3120,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05FBC4C-08ED-EBE1-0E70-035BDA9F1CEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="671503" y="539750"/>
-          <a:ext cx="5527165" cy="4922202"/>
+          <a:off x="671195" y="412750"/>
+          <a:ext cx="5527040" cy="3715385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2648,21 +3156,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F3655B-A060-42BB-BD7B-D4D61D467254}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3441700" y="2825750"/>
-          <a:ext cx="2298700" cy="298450"/>
+          <a:off x="3441700" y="2127250"/>
+          <a:ext cx="2298700" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2720,27 +3222,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D772E742-4F8C-2468-C56A-B0944C7F459B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7537449" y="690871"/>
-          <a:ext cx="4984751" cy="4798752"/>
+          <a:off x="7536815" y="563245"/>
+          <a:ext cx="4985385" cy="3592830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2762,21 +3258,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC50A0B-3EBF-4E93-8A7E-23D8BC1B7057}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7537450" y="1371600"/>
-          <a:ext cx="2667000" cy="298450"/>
+          <a:off x="7537450" y="1054100"/>
+          <a:ext cx="2667000" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2834,27 +3324,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D1D7EE-5499-8401-8FC5-007414F72FCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="595570" y="6369050"/>
-          <a:ext cx="5698346" cy="5087302"/>
+          <a:off x="594995" y="4781550"/>
+          <a:ext cx="5698490" cy="3816985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2876,21 +3360,15 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BF561E-B9C9-4CAE-819A-E32C40F54AAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3517900" y="8737600"/>
-          <a:ext cx="2298700" cy="298450"/>
+          <a:off x="3517900" y="6578600"/>
+          <a:ext cx="2298700" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2948,27 +3426,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F34F80-64D1-34E6-0553-D55622FBD377}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7723028" y="6451599"/>
-          <a:ext cx="5199221" cy="5063251"/>
+          <a:off x="7722870" y="4863465"/>
+          <a:ext cx="5198745" cy="3793490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2990,21 +3462,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB0F5D5-7C42-4A78-9797-69A5B46DD634}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7740650" y="7169150"/>
-          <a:ext cx="3714750" cy="298450"/>
+          <a:off x="7740650" y="5391150"/>
+          <a:ext cx="3714750" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3060,21 +3526,15 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矩形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9AAF4DF-38C4-4438-9D47-9804F55E6471}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5448300" y="10896600"/>
-          <a:ext cx="914400" cy="438150"/>
+          <a:off x="5448300" y="8191500"/>
+          <a:ext cx="914400" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3127,32 +3587,26 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>588437</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>213670</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>23170</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC54A321-DBA8-008B-DC55-910E56C901A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="603250" y="12463866"/>
-          <a:ext cx="5928787" cy="5275804"/>
+          <a:off x="603250" y="9352280"/>
+          <a:ext cx="5928360" cy="4005580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3174,21 +3628,15 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7A76F1-6ECD-4F3C-807D-04FE1EA40790}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5727700" y="17233900"/>
-          <a:ext cx="914400" cy="438150"/>
+          <a:off x="5727700" y="12954000"/>
+          <a:ext cx="914400" cy="336550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3244,21 +3692,15 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2BE26E-A74D-4BCB-B157-79C6E8CD9C02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3530600" y="15303500"/>
-          <a:ext cx="2705100" cy="438150"/>
+          <a:off x="3530600" y="11493500"/>
+          <a:ext cx="2705100" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3316,27 +3758,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FAA49D-A974-36D5-5DE6-AB4077704685}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7663716" y="12503150"/>
-          <a:ext cx="5583449" cy="5430287"/>
+          <a:off x="7663180" y="9391650"/>
+          <a:ext cx="5583555" cy="4096385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3358,21 +3794,15 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="矩形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27520CCE-B447-42AE-A112-CC4509A201C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7658100" y="13150850"/>
-          <a:ext cx="3549650" cy="438150"/>
+          <a:off x="7658100" y="9906000"/>
+          <a:ext cx="3549650" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3430,27 +3860,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECCAE2B-23DE-DEDC-DED1-A5E47E6DB908}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="656004" y="19135284"/>
-          <a:ext cx="5763846" cy="5132192"/>
+          <a:off x="655955" y="14372590"/>
+          <a:ext cx="5763895" cy="3862070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3472,21 +3896,15 @@
       <xdr:row>87</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="矩形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4546C5DD-B8B1-4AAF-9E4D-FC7C936D33A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3473450" y="21869400"/>
-          <a:ext cx="2565400" cy="438150"/>
+          <a:off x="3473450" y="16408400"/>
+          <a:ext cx="2565400" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3544,27 +3962,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAB8C2B-A539-A795-C897-86DBA5EEF59C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7743291" y="19100585"/>
-          <a:ext cx="5699660" cy="5579742"/>
+          <a:off x="7743190" y="14337665"/>
+          <a:ext cx="5699760" cy="4182745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3586,21 +3998,15 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="矩形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FD10B5-75E0-4C0E-BE09-B845017A1DFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772400" y="19926300"/>
-          <a:ext cx="4591050" cy="438150"/>
+          <a:off x="7772400" y="14973300"/>
+          <a:ext cx="4591050" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3656,21 +4062,15 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="矩形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632122CA-65C6-4D76-837F-301668C430F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581650" y="23723600"/>
-          <a:ext cx="914400" cy="438150"/>
+          <a:off x="5581650" y="17818100"/>
+          <a:ext cx="914400" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3717,7 +4117,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3728,32 +4128,26 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>337627</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>207318</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03174D93-A551-71FA-C272-EA5202684BC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="593568"/>
-          <a:ext cx="5652577" cy="4947750"/>
+          <a:off x="628650" y="466090"/>
+          <a:ext cx="5652135" cy="3741420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3775,21 +4169,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0656B121-B64B-47A8-AB0A-225219A7DE19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3327400" y="3600450"/>
-          <a:ext cx="2705100" cy="438150"/>
+          <a:off x="3327400" y="2711450"/>
+          <a:ext cx="2705100" cy="336550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3845,21 +4233,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33508D5F-13F9-4C73-B222-8FBE227AD84A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5327650" y="5054600"/>
-          <a:ext cx="914400" cy="438150"/>
+          <a:off x="5327650" y="3810000"/>
+          <a:ext cx="914400" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3917,27 +4299,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A33E07C-987E-CC1D-FDD1-44954A1F7C4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7698751" y="676156"/>
-          <a:ext cx="5408717" cy="5267444"/>
+          <a:off x="7698740" y="548640"/>
+          <a:ext cx="5408295" cy="3934460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3961,27 +4337,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDC142B-AB10-3F38-F1BE-B6E6E51187A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="596901" y="6666961"/>
-          <a:ext cx="6070600" cy="5440278"/>
+          <a:off x="596900" y="5015865"/>
+          <a:ext cx="6070600" cy="4106545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4003,21 +4373,15 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298F8BB1-C228-4A3A-9F8F-14C83D503E7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5721350" y="11544300"/>
-          <a:ext cx="914400" cy="438150"/>
+          <a:off x="5721350" y="8686800"/>
+          <a:ext cx="914400" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4073,21 +4437,15 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矩形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995D0224-9DC8-4A18-BF6A-704104A7F01E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3568700" y="9982200"/>
-          <a:ext cx="2654300" cy="438150"/>
+          <a:off x="3568700" y="7505700"/>
+          <a:ext cx="2654300" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4140,32 +4498,26 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>274131</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>226458</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>35958</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C493F356-8C9C-C985-5418-EB041D525365}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7763328" y="6705600"/>
-          <a:ext cx="5718803" cy="5458858"/>
+          <a:off x="7762875" y="5054600"/>
+          <a:ext cx="5718810" cy="4124960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4178,7 +4530,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4189,32 +4541,26 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>610669</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>248606</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>58106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39827222-0235-3B67-1EF7-71C8830B7244}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="567585" y="7162800"/>
-          <a:ext cx="5326284" cy="4769806"/>
+          <a:off x="567055" y="5384800"/>
+          <a:ext cx="5326380" cy="3626485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4233,32 +4579,26 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>590502</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4627ACE4-30AD-4A96-5AC3-C3A8D4C0D70C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6673850" y="7783952"/>
-          <a:ext cx="9105852" cy="1836298"/>
+          <a:off x="6673850" y="5878830"/>
+          <a:ext cx="9105265" cy="1391920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4280,21 +4620,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB08868-FC20-47B0-9D43-A3130DEB2F56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181600" y="11461750"/>
-          <a:ext cx="685800" cy="330200"/>
+          <a:off x="5181600" y="8604250"/>
+          <a:ext cx="685800" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4340,39 +4674,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>235050</xdr:rowOff>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>520026</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>489546</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9419C3-5090-2280-1EF7-5F0AB9DA4B7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="997050"/>
-          <a:ext cx="5193626" cy="4768750"/>
+          <a:off x="579120" y="800100"/>
+          <a:ext cx="5193030" cy="3606800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4394,21 +4722,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5706DC87-698F-4BF4-BAEE-E046B8B1EB40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3111500" y="1727200"/>
-          <a:ext cx="2489200" cy="3460750"/>
+          <a:off x="3111500" y="1333500"/>
+          <a:ext cx="2489200" cy="2584450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4466,27 +4788,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22682AF5-DA45-71B6-50C6-7957A6790999}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="842395"/>
-          <a:ext cx="8823056" cy="1828382"/>
+          <a:off x="6267450" y="651510"/>
+          <a:ext cx="8822690" cy="1383665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4508,21 +4824,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5347A7C3-51A3-4ABF-BFBB-66CBF0801F28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6343650" y="2476500"/>
-          <a:ext cx="1371600" cy="241300"/>
+          <a:off x="6343650" y="1905000"/>
+          <a:ext cx="1371600" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4578,21 +4888,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB73CCC-7339-490A-B878-77F3C01E07D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="1174750"/>
-          <a:ext cx="7505700" cy="273050"/>
+          <a:off x="7543800" y="920750"/>
+          <a:ext cx="7505700" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4648,21 +4952,15 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6305C190-DE04-47BC-9197-3325D4D24773}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3194050" y="7842250"/>
-          <a:ext cx="2597150" cy="3619500"/>
+          <a:off x="3194050" y="5905500"/>
+          <a:ext cx="2597150" cy="2698750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4718,21 +5016,15 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC02E723-223F-4148-A38A-AD671B7D8C5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8166100" y="8077200"/>
-          <a:ext cx="7670800" cy="266700"/>
+          <a:off x="8166100" y="6096000"/>
+          <a:ext cx="7670800" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4788,21 +5080,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="矩形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4415AA-25AF-4094-AB98-B10BC2E07D34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="9448800"/>
-          <a:ext cx="1371600" cy="241300"/>
+          <a:off x="6858000" y="7099300"/>
+          <a:ext cx="1371600" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4849,7 +5135,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4860,32 +5146,26 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>275946</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>222827</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673B69F8-C240-2A95-BC6C-6C70A1F5382E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="593133"/>
-          <a:ext cx="12163146" cy="2423694"/>
+          <a:off x="660400" y="466090"/>
+          <a:ext cx="12162790" cy="1851660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4907,21 +5187,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C934F25-24D0-4EAA-AA1A-BA2BED00B064}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10782300" y="533400"/>
-          <a:ext cx="1104900" cy="1187450"/>
+          <a:off x="10782300" y="406400"/>
+          <a:ext cx="1104900" cy="927100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4967,31 +5241,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>271780</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACB7512-E688-47F3-BAB1-15F51033D839}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="901700" y="2851150"/>
-          <a:ext cx="1689100" cy="234950"/>
+          <a:off x="932180" y="1954530"/>
+          <a:ext cx="1689100" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5036,40 +5304,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>168958</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542290</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>639248</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>73970</xdr:rowOff>
+      <xdr:colOff>352180</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>188270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCEB8EA-CC5E-A328-AEB8-3F12F0B6C1FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6112558" y="3714750"/>
-          <a:ext cx="5093090" cy="4487220"/>
+          <a:off x="5825490" y="2749550"/>
+          <a:ext cx="5092700" cy="3343910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5091,21 +5353,15 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矩形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C0E45F-9A6C-4BA7-96C5-E159C720DDE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10236200" y="7740650"/>
-          <a:ext cx="1104900" cy="387350"/>
+          <a:off x="10236200" y="5835650"/>
+          <a:ext cx="1104900" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5161,21 +5417,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B7E536-308B-4F82-AE0F-86952E305080}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8566150" y="4406900"/>
-          <a:ext cx="2571750" cy="3352800"/>
+          <a:off x="8566150" y="3327400"/>
+          <a:ext cx="2571750" cy="2527300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5231,21 +5481,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55C0D38-3929-4FD2-A414-96432BA5FE46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8648700" y="4470400"/>
-          <a:ext cx="1847850" cy="444500"/>
+          <a:off x="8648700" y="3390900"/>
+          <a:ext cx="1847850" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5303,27 +5547,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1884BE6E-EC6D-8B4F-6835-B4731BD6D35A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="9653792"/>
-          <a:ext cx="12026617" cy="2383205"/>
+          <a:off x="609600" y="7240270"/>
+          <a:ext cx="12026265" cy="1811655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5345,21 +5583,15 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>234950</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B809CF8-7D79-4032-B002-4F2A9B496428}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609850" y="10515600"/>
-          <a:ext cx="10090150" cy="387350"/>
+          <a:off x="2609850" y="7912100"/>
+          <a:ext cx="10090150" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5448,7 +5680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -5483,7 +5715,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -5657,63 +5889,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="8.66666666666667" style="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:5">
+      <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="2:5">
+      <c r="B58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B99" s="2" t="s">
+    <row r="99" spans="2:2">
+      <c r="B99" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5724,339 +5951,196 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B58:E58"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055CE8DB-4FE0-41F6-B8A2-6435FEBE4B8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA18140-BEDA-441F-9B20-57556F7696B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:S77"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.6">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.6">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:13">
+      <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.6">
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="2:13">
+      <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.6">
-      <c r="B77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="M77:S77"/>
-    <mergeCell ref="M52:S52"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="M26:S26"/>
     <mergeCell ref="B52:K52"/>
+    <mergeCell ref="M52:S52"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="M77:S77"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11F357-B2A4-458C-AE12-26EE6BCEDB32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:T75"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.6">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.6">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:13">
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.6">
-      <c r="B49" s="4" t="s">
+    <row r="49" spans="2:13">
+      <c r="B49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B75" s="4" t="s">
+    <row r="75" spans="2:13">
+      <c r="B75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="M75" s="4" t="s">
+      <c r="M75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B75:K75"/>
-    <mergeCell ref="M75:T75"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="B25:L25"/>
     <mergeCell ref="M25:S25"/>
     <mergeCell ref="B49:J49"/>
     <mergeCell ref="M49:S49"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="M75:T75"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0331F21D-EA6E-402B-B16C-30BE765EA7AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.6">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:13">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.6">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:13">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6065,71 +6149,73 @@
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="M26:S26"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4EB335-1441-44AC-9070-2937F2B12030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A46D90-4D3C-47E1-8920-FE4A02F25FDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.6">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>